--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\dsc-2-final-project-online-ds-sp-000\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david_000\Documents\GitHub\dsc-2-final-project-online-ds-sp-000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{1428C0B0-4F84-490C-A250-54E2DEC5DCA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D530A880-DC0C-4964-9F11-4FE113217178}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22680" yWindow="6216" windowWidth="23400" windowHeight="19140" activeTab="1" xr2:uid="{79185861-1435-4DED-A799-5D16BD9516FE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13695" activeTab="1" xr2:uid="{79185861-1435-4DED-A799-5D16BD9516FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Average Order Quantity</t>
   </si>
@@ -42,12 +42,32 @@
   <si>
     <t>With Discount</t>
   </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>British Isles</t>
+  </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +93,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,7 +489,351 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Net Sales - July 2012 to May 2014</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>British Isles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>North America</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3480.6233689999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9305.1649089999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6783-422D-981B-C63293A03469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1009,6 +1376,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1030,6 +1916,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0A2541-2BF3-405C-BF92-B1B48FB32BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>354805</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A24B888-8C6F-41B0-83B9-D6619C52443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,17 +2280,17 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +2298,7 @@
         <v>21.715</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1387,12 +2314,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ACB800-338F-43EC-A522-B3B3C1D6C5C2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3480.6233689999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9305.1649089999992</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>